--- a/ejemplos/modelos_arbol_individual-masas_mixtas/PsylvestrisQilex_IFN_3_parcelas.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_mixtas/PsylvestrisQilex_IFN_3_parcelas.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,70 +371,75 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_sp1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ID_sp2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -452,39 +457,42 @@
         </is>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
         <v>45</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>369.3809390337233</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>22.30206919444444</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>16.38560883889357</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-3.208317150712785</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>42.92866711939243</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>41.07403603558134</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>39.30715935154512</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>37.41256097398505</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>36.02873453561281</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>34.57111825117659</v>
       </c>
     </row>
@@ -500,39 +508,42 @@
         </is>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
         <v>45</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1292.055195785138</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>31.30705330555556</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>12.14308616905113</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-3.196063272972486</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>42.92868876250386</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>41.07403603558134</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>39.46790041712681</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>37.56639665282087</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>36.13284136020199</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>34.67101677907502</v>
       </c>
     </row>
@@ -548,39 +559,42 @@
         </is>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
         <v>45</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1124.694931182727</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>33.62904027777778</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>15.06103295394597</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-3.220474692635669</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>42.9016295179731</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>41.40005727011604</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>38.48275852401815</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>36.56372839266469</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>35.19706683417383</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>33.73650107122742</v>
       </c>
     </row>
